--- a/embedded_cl_in_1st_layer_of_ice_zero_water_to_cl_ccsd.xlsx
+++ b/embedded_cl_in_1st_layer_of_ice_zero_water_to_cl_ccsd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4506C398-DBDA-C44E-B9D4-8C3E9C3696F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFF85B5-2190-B142-B8E4-B7E434B55AAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="940" windowWidth="19540" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
+    <workbookView xWindow="-1060" yWindow="980" windowWidth="19540" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,19 +72,19 @@
     <t>eomip_cl_embedded_CVS_daug_acv3z_x2cmmf_gaunt_2p</t>
   </si>
   <si>
-    <t>eomip_cl_embedded_CVS_daug-acv4z_x2cmmf_gaunt_1s</t>
+    <t>eomip_cl_embedded_CVS_daug_acv4z_x2cmmf_gaunt_2p</t>
   </si>
   <si>
-    <t>eomip_cl_embedded_CVS_daug-acv4z_x2cmmf_gaunt_2s</t>
+    <t>eomip_cl_embedded_CVS_daug_acv4z_x2cmmf_gaunt_1s</t>
   </si>
   <si>
-    <t>eomip_cl_embedded_CVS_daug-acv4z_x2cmmf_gaunt_2p12</t>
+    <t>eomip_cl_embedded_CVS_daug_acv4z_x2cmmf_gaunt_2s</t>
   </si>
   <si>
-    <t>eomip_cl_embedded_CVS_daug-acv4z_x2cmmf_gaunt_2p32</t>
+    <t>eomip_cl_embedded_CVS_daug_acv4z_x2cmmf_gaunt_2p12</t>
   </si>
   <si>
-    <t>eomip_cl_embedded_CVS_daug_acv4z_x2cmmf_gaunt_2p</t>
+    <t>eomip_cl_embedded_CVS_daug_acv4z_x2cmmf_gaunt_2p32</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A4:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,19 +491,19 @@
         <v>14</v>
       </c>
       <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
